--- a/db/db-challenge2/データベース定義書.xlsx
+++ b/db/db-challenge2/データベース定義書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23119"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="400" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{DFB2CA36-62E8-425B-A933-1B7F68C0E0A4}"/>
+  <xr:revisionPtr revIDLastSave="412" documentId="11_8E513BE869550975F20FED1A71AE06380525DFC9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{10A644C7-B587-4C5E-8EE3-9036FBFC2E16}"/>
   <bookViews>
     <workbookView xWindow="510" yWindow="570" windowWidth="27735" windowHeight="11925" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="119">
   <si>
     <t>改定履歴</t>
   </si>
@@ -297,7 +297,6 @@
   </si>
   <si>
     <t>PK</t>
-    <phoneticPr fontId="6"/>
   </si>
   <si>
     <t>auto_increment</t>
@@ -535,9 +534,6 @@
     <t>user_id</t>
   </si>
   <si>
-    <t>PK</t>
-  </si>
-  <si>
     <t>表示名</t>
   </si>
   <si>
@@ -595,6 +591,9 @@
     <t>room_id</t>
   </si>
   <si>
+    <t>PK,FK</t>
+  </si>
+  <si>
     <t>参加日時</t>
   </si>
   <si>
@@ -629,6 +628,9 @@
   </si>
   <si>
     <t>作成者ID</t>
+  </si>
+  <si>
+    <t>FK</t>
   </si>
   <si>
     <t>更新者ID</t>
@@ -30046,7 +30048,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -30699,7 +30701,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
@@ -30821,7 +30823,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>37</v>
@@ -30835,13 +30837,13 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>66</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>67</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
@@ -30861,13 +30863,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>69</v>
-      </c>
       <c r="E7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -30887,13 +30889,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="E8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -30913,13 +30915,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>73</v>
-      </c>
       <c r="E9" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F9" s="16">
         <v>13</v>
@@ -30937,13 +30939,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>75</v>
-      </c>
       <c r="E10" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F10" s="16">
         <v>13</v>
@@ -30961,13 +30963,13 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>77</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F11" s="16">
         <v>1000</v>
@@ -30985,7 +30987,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>46</v>
@@ -31005,7 +31007,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -31015,7 +31017,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>50</v>
@@ -31039,7 +31041,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>55</v>
@@ -31076,8 +31078,8 @@
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="4" topLeftCell="D5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31182,10 +31184,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>34</v>
@@ -31198,7 +31200,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="20"/>
@@ -31226,7 +31228,7 @@
         <v>35</v>
       </c>
       <c r="I6" s="20" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
@@ -31393,7 +31395,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31500,10 +31502,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>34</v>
@@ -31516,7 +31518,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>37</v>
@@ -31566,7 +31568,7 @@
         <v>90</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -31592,7 +31594,7 @@
         <v>43</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="16">
         <v>1000</v>
@@ -31655,7 +31657,9 @@
       <c r="H10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
@@ -31666,7 +31670,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>58</v>
@@ -31681,7 +31685,9 @@
       <c r="H11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
@@ -31692,7 +31698,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>46</v>
@@ -31712,7 +31718,7 @@
       <c r="I12" s="20"/>
       <c r="J12" s="20"/>
       <c r="K12" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75">
@@ -31722,7 +31728,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>50</v>
@@ -31746,7 +31752,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>55</v>
@@ -31810,7 +31816,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomLeft" activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31915,10 +31921,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>34</v>
@@ -31931,7 +31937,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>37</v>
@@ -31945,10 +31951,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>34</v>
@@ -31960,7 +31966,9 @@
       <c r="H6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
@@ -31971,13 +31979,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -31997,13 +32005,13 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F8" s="16">
         <v>100</v>
@@ -32021,10 +32029,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>34</v>
@@ -32036,7 +32044,9 @@
       <c r="H9" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="20"/>
+      <c r="I9" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="J9" s="20"/>
       <c r="K9" s="20"/>
     </row>
@@ -32047,7 +32057,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D10" s="12" t="s">
         <v>58</v>
@@ -32062,7 +32072,9 @@
       <c r="H10" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="20"/>
+      <c r="I10" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="J10" s="20"/>
       <c r="K10" s="15"/>
     </row>
@@ -32073,7 +32085,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D11" s="12" t="s">
         <v>46</v>
@@ -32093,7 +32105,7 @@
       <c r="I11" s="20"/>
       <c r="J11" s="20"/>
       <c r="K11" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75">
@@ -32103,10 +32115,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>56</v>
@@ -32127,7 +32139,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>55</v>
@@ -32204,7 +32216,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -32311,10 +32323,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E5" s="13" t="s">
         <v>34</v>
@@ -32327,7 +32339,7 @@
         <v>35</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="J5" s="13" t="s">
         <v>37</v>
@@ -32341,10 +32353,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>83</v>
       </c>
       <c r="E6" s="13" t="s">
         <v>34</v>
@@ -32356,7 +32368,9 @@
       <c r="H6" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I6" s="20"/>
+      <c r="I6" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="J6" s="20"/>
       <c r="K6" s="20"/>
     </row>
@@ -32367,13 +32381,13 @@
         <v>3</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F7" s="16">
         <v>1000</v>
@@ -32393,10 +32407,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E8" s="13" t="s">
         <v>34</v>
@@ -32408,7 +32422,9 @@
       <c r="H8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="20"/>
+      <c r="I8" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="J8" s="20"/>
       <c r="K8" s="20"/>
     </row>
@@ -32419,10 +32435,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>56</v>
@@ -32441,10 +32457,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E10" s="13" t="s">
         <v>47</v>
@@ -32461,7 +32477,7 @@
       <c r="I10" s="20"/>
       <c r="J10" s="20"/>
       <c r="K10" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75">
@@ -32486,7 +32502,9 @@
       <c r="H11" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="J11" s="20"/>
       <c r="K11" s="15"/>
     </row>
@@ -32497,7 +32515,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D12" s="12" t="s">
         <v>58</v>
@@ -32512,7 +32530,9 @@
       <c r="H12" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="I12" s="20"/>
+      <c r="I12" s="20" t="s">
+        <v>96</v>
+      </c>
       <c r="J12" s="20"/>
       <c r="K12" s="15"/>
     </row>
@@ -32523,7 +32543,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>46</v>
@@ -32543,7 +32563,7 @@
       <c r="I13" s="20"/>
       <c r="J13" s="20"/>
       <c r="K13" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75">
@@ -32553,7 +32573,7 @@
         <v>10</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>50</v>
@@ -32577,7 +32597,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>55</v>
